--- a/ITECC05Activity/HooplyticsTopicAPI.xlsx
+++ b/ITECC05Activity/HooplyticsTopicAPI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Pictures\Downloaded Pics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Hooplytics\ITECC05Activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895EAFEC-F666-4140-BAF1-3302625A23F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F189E97D-7DC7-4BF1-BF9F-D764A00F3487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database_Layout" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>Table</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>db_hooplytics</t>
+  </si>
+  <si>
+    <t>getPlayerByTeamId()</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B19" sqref="A2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,179 +1256,184 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>123</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>112</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
         <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>89</v>
       </c>
       <c r="F12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>95</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
         <v>100</v>
       </c>
       <c r="F18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
         <v>105</v>
       </c>
     </row>
